--- a/www.eia.gov/electricity/monthly/xls/table_2_08_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_2_08_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table 2.8.B.  Consumption of Coal for Electricity Generation by State, by Sector,</t>
   </si>
   <si>
-    <t>Year-to-Date through October 2016 and October 2015 (Thousand Tons)</t>
+    <t>Year-to-Date through November 2016 and November 2015 (Thousand Tons)</t>
   </si>
   <si>
     <t/>
@@ -55,10 +55,10 @@
     <t>Industrial Sector</t>
   </si>
   <si>
-    <t>October 2016 YTD</t>
-  </si>
-  <si>
-    <t>October 2015 YTD</t>
+    <t>November 2016 YTD</t>
+  </si>
+  <si>
+    <t>November 2015 YTD</t>
   </si>
   <si>
     <t>Percentage Change</t>
@@ -1353,25 +1353,25 @@
         <v>13</v>
       </c>
       <c r="B6" s="13">
-        <v>943</v>
+        <v>973</v>
       </c>
       <c r="C6" s="13">
-        <v>1607</v>
+        <v>1709</v>
       </c>
       <c r="D6" s="14">
-        <v>-0.41</v>
+        <v>-0.43</v>
       </c>
       <c r="E6" s="13">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F6" s="13">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="G6" s="13">
-        <v>814</v>
+        <v>843</v>
       </c>
       <c r="H6" s="13">
-        <v>1203</v>
+        <v>1300</v>
       </c>
       <c r="I6" s="13">
         <v>0</v>
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L6" s="13">
         <v>11</v>
@@ -1391,13 +1391,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="16">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" s="16">
         <v>359</v>
       </c>
       <c r="D7" s="17">
-        <v>-0.8</v>
+        <v>-0.79</v>
       </c>
       <c r="E7" s="16">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="16">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H7" s="16">
         <v>359</v>
@@ -1429,13 +1429,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="16">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="17">
-        <v>-0.32</v>
+        <v>-0.3</v>
       </c>
       <c r="E8" s="16">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H8" s="16">
         <v>12</v>
@@ -1459,7 +1459,7 @@
         <v>3</v>
       </c>
       <c r="L8" s="16">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1467,13 +1467,13 @@
         <v>16</v>
       </c>
       <c r="B9" s="16">
-        <v>734</v>
+        <v>762</v>
       </c>
       <c r="C9" s="16">
-        <v>836</v>
+        <v>932</v>
       </c>
       <c r="D9" s="17">
-        <v>-0.12</v>
+        <v>-0.18</v>
       </c>
       <c r="E9" s="16">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="16">
-        <v>731</v>
+        <v>759</v>
       </c>
       <c r="H9" s="16">
-        <v>833</v>
+        <v>929</v>
       </c>
       <c r="I9" s="16">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>17</v>
       </c>
       <c r="B10" s="16">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C10" s="16">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D10" s="17">
         <v>-0.69</v>
       </c>
       <c r="E10" s="16">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F10" s="16">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="G10" s="16">
         <v>0</v>
@@ -1619,10 +1619,10 @@
         <v>21</v>
       </c>
       <c r="B13" s="13">
-        <v>22581</v>
+        <v>24351</v>
       </c>
       <c r="C13" s="13">
-        <v>28464</v>
+        <v>30697</v>
       </c>
       <c r="D13" s="14">
         <v>-0.21</v>
@@ -1634,10 +1634,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="13">
-        <v>22401</v>
+        <v>24158</v>
       </c>
       <c r="H13" s="13">
-        <v>28264</v>
+        <v>30478</v>
       </c>
       <c r="I13" s="13">
         <v>0</v>
@@ -1646,10 +1646,10 @@
         <v>1</v>
       </c>
       <c r="K13" s="13">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="L13" s="13">
-        <v>199</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1657,13 +1657,13 @@
         <v>22</v>
       </c>
       <c r="B14" s="16">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="C14" s="16">
-        <v>666</v>
+        <v>711</v>
       </c>
       <c r="D14" s="17">
-        <v>-0.3</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="E14" s="16">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="16">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="H14" s="16">
-        <v>666</v>
+        <v>711</v>
       </c>
       <c r="I14" s="16">
         <v>0</v>
@@ -1695,13 +1695,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="16">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="C15" s="16">
-        <v>1013</v>
+        <v>1056</v>
       </c>
       <c r="D15" s="17">
-        <v>-0.32</v>
+        <v>-0.35</v>
       </c>
       <c r="E15" s="16">
         <v>0</v>
@@ -1713,7 +1713,7 @@
         <v>627</v>
       </c>
       <c r="H15" s="16">
-        <v>957</v>
+        <v>995</v>
       </c>
       <c r="I15" s="16">
         <v>0</v>
@@ -1722,10 +1722,10 @@
         <v>0</v>
       </c>
       <c r="K15" s="16">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L15" s="16">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1733,10 +1733,10 @@
         <v>24</v>
       </c>
       <c r="B16" s="16">
-        <v>21426</v>
+        <v>23156</v>
       </c>
       <c r="C16" s="16">
-        <v>26784</v>
+        <v>28931</v>
       </c>
       <c r="D16" s="17">
         <v>-0.2</v>
@@ -1748,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="16">
-        <v>21305</v>
+        <v>23027</v>
       </c>
       <c r="H16" s="16">
-        <v>26640</v>
+        <v>28773</v>
       </c>
       <c r="I16" s="16">
         <v>0</v>
@@ -1760,10 +1760,10 @@
         <v>1</v>
       </c>
       <c r="K16" s="16">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="L16" s="16">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1771,37 +1771,37 @@
         <v>25</v>
       </c>
       <c r="B17" s="13">
-        <v>120343</v>
+        <v>130080</v>
       </c>
       <c r="C17" s="13">
-        <v>143436</v>
+        <v>154291</v>
       </c>
       <c r="D17" s="14">
         <v>-0.16</v>
       </c>
       <c r="E17" s="13">
-        <v>72381</v>
+        <v>78820</v>
       </c>
       <c r="F17" s="13">
-        <v>83374</v>
+        <v>90009</v>
       </c>
       <c r="G17" s="13">
-        <v>47287</v>
+        <v>50525</v>
       </c>
       <c r="H17" s="13">
-        <v>59298</v>
+        <v>63448</v>
       </c>
       <c r="I17" s="13">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J17" s="13">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K17" s="13">
-        <v>652</v>
+        <v>709</v>
       </c>
       <c r="L17" s="13">
-        <v>729</v>
+        <v>797</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1809,37 +1809,37 @@
         <v>26</v>
       </c>
       <c r="B18" s="16">
-        <v>30533</v>
+        <v>32549</v>
       </c>
       <c r="C18" s="16">
-        <v>38460</v>
+        <v>41385</v>
       </c>
       <c r="D18" s="17">
         <v>-0.21</v>
       </c>
       <c r="E18" s="16">
-        <v>1648</v>
+        <v>1759</v>
       </c>
       <c r="F18" s="16">
-        <v>1741</v>
+        <v>1882</v>
       </c>
       <c r="G18" s="16">
-        <v>28418</v>
+        <v>30278</v>
       </c>
       <c r="H18" s="16">
-        <v>36232</v>
+        <v>38971</v>
       </c>
       <c r="I18" s="16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J18" s="16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K18" s="16">
-        <v>457</v>
+        <v>501</v>
       </c>
       <c r="L18" s="16">
-        <v>475</v>
+        <v>521</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1847,37 +1847,37 @@
         <v>27</v>
       </c>
       <c r="B19" s="16">
-        <v>30132</v>
+        <v>32578</v>
       </c>
       <c r="C19" s="16">
-        <v>34179</v>
+        <v>36669</v>
       </c>
       <c r="D19" s="17">
-        <v>-0.12</v>
+        <v>-0.11</v>
       </c>
       <c r="E19" s="16">
-        <v>28606</v>
+        <v>30930</v>
       </c>
       <c r="F19" s="16">
-        <v>31868</v>
+        <v>34118</v>
       </c>
       <c r="G19" s="16">
-        <v>1516</v>
+        <v>1636</v>
       </c>
       <c r="H19" s="16">
-        <v>2301</v>
+        <v>2542</v>
       </c>
       <c r="I19" s="16">
+        <v>11</v>
+      </c>
+      <c r="J19" s="16">
         <v>9</v>
-      </c>
-      <c r="J19" s="16">
-        <v>8</v>
       </c>
       <c r="K19" s="16">
         <v>1</v>
       </c>
       <c r="L19" s="16">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1885,25 +1885,25 @@
         <v>28</v>
       </c>
       <c r="B20" s="16">
-        <v>19338</v>
+        <v>21160</v>
       </c>
       <c r="C20" s="16">
-        <v>24978</v>
+        <v>27321</v>
       </c>
       <c r="D20" s="17">
         <v>-0.23</v>
       </c>
       <c r="E20" s="16">
-        <v>19072</v>
+        <v>20871</v>
       </c>
       <c r="F20" s="16">
-        <v>24712</v>
+        <v>27032</v>
       </c>
       <c r="G20" s="16">
+        <v>228</v>
+      </c>
+      <c r="H20" s="16">
         <v>209</v>
-      </c>
-      <c r="H20" s="16">
-        <v>191</v>
       </c>
       <c r="I20" s="16">
         <v>4</v>
@@ -1912,10 +1912,10 @@
         <v>15</v>
       </c>
       <c r="K20" s="16">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L20" s="16">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1923,25 +1923,25 @@
         <v>29</v>
       </c>
       <c r="B21" s="16">
-        <v>24336</v>
+        <v>26310</v>
       </c>
       <c r="C21" s="16">
-        <v>27291</v>
+        <v>28919</v>
       </c>
       <c r="D21" s="17">
-        <v>-0.11</v>
+        <v>-0.09</v>
       </c>
       <c r="E21" s="16">
-        <v>7153</v>
+        <v>7887</v>
       </c>
       <c r="F21" s="16">
-        <v>6669</v>
+        <v>7140</v>
       </c>
       <c r="G21" s="16">
-        <v>17143</v>
+        <v>18383</v>
       </c>
       <c r="H21" s="16">
-        <v>20573</v>
+        <v>21726</v>
       </c>
       <c r="I21" s="16">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>0</v>
       </c>
       <c r="K21" s="16">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L21" s="16">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1961,19 +1961,19 @@
         <v>30</v>
       </c>
       <c r="B22" s="16">
-        <v>16004</v>
+        <v>17482</v>
       </c>
       <c r="C22" s="16">
-        <v>18528</v>
+        <v>19996</v>
       </c>
       <c r="D22" s="17">
-        <v>-0.14000000000000001</v>
+        <v>-0.13</v>
       </c>
       <c r="E22" s="16">
-        <v>15903</v>
+        <v>17373</v>
       </c>
       <c r="F22" s="16">
-        <v>18383</v>
+        <v>19838</v>
       </c>
       <c r="G22" s="16">
         <v>0</v>
@@ -1988,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="K22" s="16">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L22" s="16">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1999,37 +1999,37 @@
         <v>31</v>
       </c>
       <c r="B23" s="13">
-        <v>96403</v>
+        <v>104888</v>
       </c>
       <c r="C23" s="13">
-        <v>107310</v>
+        <v>115636</v>
       </c>
       <c r="D23" s="14">
-        <v>-0.1</v>
+        <v>-9.2999999999999999E-2</v>
       </c>
       <c r="E23" s="13">
-        <v>95270</v>
+        <v>103663</v>
       </c>
       <c r="F23" s="13">
-        <v>105948</v>
+        <v>114146</v>
       </c>
       <c r="G23" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H23" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I23" s="13">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J23" s="13">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K23" s="13">
-        <v>1078</v>
+        <v>1164</v>
       </c>
       <c r="L23" s="13">
-        <v>1304</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2037,19 +2037,19 @@
         <v>32</v>
       </c>
       <c r="B24" s="16">
-        <v>12606</v>
+        <v>13537</v>
       </c>
       <c r="C24" s="16">
-        <v>15739</v>
+        <v>16520</v>
       </c>
       <c r="D24" s="17">
-        <v>-0.2</v>
+        <v>-0.18</v>
       </c>
       <c r="E24" s="16">
-        <v>12000</v>
+        <v>12885</v>
       </c>
       <c r="F24" s="16">
-        <v>15048</v>
+        <v>15764</v>
       </c>
       <c r="G24" s="16">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="I24" s="16">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J24" s="16">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K24" s="16">
-        <v>576</v>
+        <v>620</v>
       </c>
       <c r="L24" s="16">
-        <v>664</v>
+        <v>726</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2075,19 +2075,19 @@
         <v>33</v>
       </c>
       <c r="B25" s="16">
-        <v>12127</v>
+        <v>13163</v>
       </c>
       <c r="C25" s="16">
-        <v>14075</v>
+        <v>14862</v>
       </c>
       <c r="D25" s="17">
-        <v>-0.14000000000000001</v>
+        <v>-0.11</v>
       </c>
       <c r="E25" s="16">
-        <v>12127</v>
+        <v>13163</v>
       </c>
       <c r="F25" s="16">
-        <v>14075</v>
+        <v>14862</v>
       </c>
       <c r="G25" s="16">
         <v>0</v>
@@ -2113,19 +2113,19 @@
         <v>34</v>
       </c>
       <c r="B26" s="16">
-        <v>11302</v>
+        <v>12520</v>
       </c>
       <c r="C26" s="16">
-        <v>12246</v>
+        <v>13428</v>
       </c>
       <c r="D26" s="17">
-        <v>-7.6999999999999999E-2</v>
+        <v>-6.8000000000000005E-2</v>
       </c>
       <c r="E26" s="16">
-        <v>11090</v>
+        <v>12290</v>
       </c>
       <c r="F26" s="16">
-        <v>11968</v>
+        <v>13121</v>
       </c>
       <c r="G26" s="16">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="I26" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J26" s="16">
         <v>4</v>
       </c>
       <c r="K26" s="16">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="L26" s="16">
-        <v>274</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2151,34 +2151,34 @@
         <v>35</v>
       </c>
       <c r="B27" s="16">
-        <v>30199</v>
+        <v>32588</v>
       </c>
       <c r="C27" s="16">
-        <v>32904</v>
+        <v>35541</v>
       </c>
       <c r="D27" s="17">
-        <v>-8.2000000000000003E-2</v>
+        <v>-8.3000000000000004E-2</v>
       </c>
       <c r="E27" s="16">
-        <v>30168</v>
+        <v>32552</v>
       </c>
       <c r="F27" s="16">
-        <v>32866</v>
+        <v>35500</v>
       </c>
       <c r="G27" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H27" s="16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I27" s="16">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J27" s="16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K27" s="16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L27" s="16">
         <v>12</v>
@@ -2189,19 +2189,19 @@
         <v>36</v>
       </c>
       <c r="B28" s="16">
-        <v>10967</v>
+        <v>12031</v>
       </c>
       <c r="C28" s="16">
-        <v>12637</v>
+        <v>13646</v>
       </c>
       <c r="D28" s="17">
-        <v>-0.13</v>
+        <v>-0.12</v>
       </c>
       <c r="E28" s="16">
-        <v>10735</v>
+        <v>11780</v>
       </c>
       <c r="F28" s="16">
-        <v>12340</v>
+        <v>13325</v>
       </c>
       <c r="G28" s="16">
         <v>0</v>
@@ -2216,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="K28" s="16">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="L28" s="16">
-        <v>297</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2227,19 +2227,19 @@
         <v>37</v>
       </c>
       <c r="B29" s="16">
-        <v>18077</v>
+        <v>19797</v>
       </c>
       <c r="C29" s="16">
-        <v>18974</v>
+        <v>20782</v>
       </c>
       <c r="D29" s="17">
         <v>-4.7E-2</v>
       </c>
       <c r="E29" s="16">
-        <v>18026</v>
+        <v>19741</v>
       </c>
       <c r="F29" s="16">
-        <v>18916</v>
+        <v>20716</v>
       </c>
       <c r="G29" s="16">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="K29" s="16">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L29" s="16">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2265,19 +2265,19 @@
         <v>38</v>
       </c>
       <c r="B30" s="16">
-        <v>1124</v>
+        <v>1252</v>
       </c>
       <c r="C30" s="16">
-        <v>734</v>
+        <v>858</v>
       </c>
       <c r="D30" s="17">
-        <v>0.53</v>
+        <v>0.46</v>
       </c>
       <c r="E30" s="16">
-        <v>1124</v>
+        <v>1252</v>
       </c>
       <c r="F30" s="16">
-        <v>734</v>
+        <v>858</v>
       </c>
       <c r="G30" s="16">
         <v>0</v>
@@ -2303,37 +2303,37 @@
         <v>39</v>
       </c>
       <c r="B31" s="13">
-        <v>88139</v>
+        <v>94370</v>
       </c>
       <c r="C31" s="13">
-        <v>93041</v>
+        <v>99272</v>
       </c>
       <c r="D31" s="14">
-        <v>-5.2999999999999999E-2</v>
+        <v>-4.9000000000000002E-2</v>
       </c>
       <c r="E31" s="13">
-        <v>77281</v>
+        <v>82725</v>
       </c>
       <c r="F31" s="13">
-        <v>81747</v>
+        <v>87239</v>
       </c>
       <c r="G31" s="13">
-        <v>10612</v>
+        <v>11380</v>
       </c>
       <c r="H31" s="13">
-        <v>10941</v>
+        <v>11649</v>
       </c>
       <c r="I31" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J31" s="13">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K31" s="13">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="L31" s="13">
-        <v>334</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2344,10 +2344,10 @@
         <v>220</v>
       </c>
       <c r="C32" s="16">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="D32" s="17">
-        <v>-0.16</v>
+        <v>-0.2</v>
       </c>
       <c r="E32" s="16">
         <v>0</v>
@@ -2359,7 +2359,7 @@
         <v>220</v>
       </c>
       <c r="H32" s="16">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="I32" s="16">
         <v>0</v>
@@ -2417,25 +2417,25 @@
         <v>42</v>
       </c>
       <c r="B34" s="16">
-        <v>14876</v>
+        <v>16120</v>
       </c>
       <c r="C34" s="16">
-        <v>16535</v>
+        <v>17849</v>
       </c>
       <c r="D34" s="17">
-        <v>-0.1</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="E34" s="16">
-        <v>14581</v>
+        <v>15813</v>
       </c>
       <c r="F34" s="16">
-        <v>16084</v>
+        <v>17394</v>
       </c>
       <c r="G34" s="16">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="H34" s="16">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="I34" s="16">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="K34" s="16">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L34" s="16">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2455,19 +2455,19 @@
         <v>43</v>
       </c>
       <c r="B35" s="16">
-        <v>16648</v>
+        <v>17784</v>
       </c>
       <c r="C35" s="16">
-        <v>17628</v>
+        <v>18455</v>
       </c>
       <c r="D35" s="17">
-        <v>-5.6000000000000001E-2</v>
+        <v>-3.5999999999999997E-2</v>
       </c>
       <c r="E35" s="16">
-        <v>16607</v>
+        <v>17740</v>
       </c>
       <c r="F35" s="16">
-        <v>17587</v>
+        <v>18410</v>
       </c>
       <c r="G35" s="16">
         <v>0</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="K35" s="16">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L35" s="16">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2493,13 +2493,13 @@
         <v>44</v>
       </c>
       <c r="B36" s="16">
-        <v>5224</v>
+        <v>5511</v>
       </c>
       <c r="C36" s="16">
-        <v>5566</v>
+        <v>5820</v>
       </c>
       <c r="D36" s="17">
-        <v>-6.2E-2</v>
+        <v>-5.2999999999999999E-2</v>
       </c>
       <c r="E36" s="16">
         <v>0</v>
@@ -2508,10 +2508,10 @@
         <v>0</v>
       </c>
       <c r="G36" s="16">
-        <v>5207</v>
+        <v>5492</v>
       </c>
       <c r="H36" s="16">
-        <v>5540</v>
+        <v>5791</v>
       </c>
       <c r="I36" s="16">
         <v>0</v>
@@ -2520,10 +2520,10 @@
         <v>0.12</v>
       </c>
       <c r="K36" s="16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L36" s="16">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2531,37 +2531,37 @@
         <v>45</v>
       </c>
       <c r="B37" s="16">
-        <v>12894</v>
+        <v>13618</v>
       </c>
       <c r="C37" s="16">
-        <v>14328</v>
+        <v>15063</v>
       </c>
       <c r="D37" s="17">
-        <v>-0.1</v>
+        <v>-9.6000000000000002E-2</v>
       </c>
       <c r="E37" s="16">
-        <v>12735</v>
+        <v>13453</v>
       </c>
       <c r="F37" s="16">
-        <v>14146</v>
+        <v>14874</v>
       </c>
       <c r="G37" s="16">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H37" s="16">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I37" s="16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J37" s="16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K37" s="16">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L37" s="16">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2569,19 +2569,19 @@
         <v>46</v>
       </c>
       <c r="B38" s="16">
-        <v>7396</v>
+        <v>7876</v>
       </c>
       <c r="C38" s="16">
-        <v>8216</v>
+        <v>8771</v>
       </c>
       <c r="D38" s="17">
         <v>-0.1</v>
       </c>
       <c r="E38" s="16">
-        <v>7358</v>
+        <v>7836</v>
       </c>
       <c r="F38" s="16">
-        <v>8169</v>
+        <v>8721</v>
       </c>
       <c r="G38" s="16">
         <v>0</v>
@@ -2596,10 +2596,10 @@
         <v>0</v>
       </c>
       <c r="K38" s="16">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L38" s="16">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2607,25 +2607,25 @@
         <v>47</v>
       </c>
       <c r="B39" s="16">
-        <v>6466</v>
+        <v>6758</v>
       </c>
       <c r="C39" s="16">
-        <v>6544</v>
+        <v>7053</v>
       </c>
       <c r="D39" s="17">
-        <v>-1.2E-2</v>
+        <v>-4.2000000000000003E-2</v>
       </c>
       <c r="E39" s="16">
-        <v>6158</v>
+        <v>6434</v>
       </c>
       <c r="F39" s="16">
-        <v>6121</v>
+        <v>6605</v>
       </c>
       <c r="G39" s="16">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="H39" s="16">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="I39" s="16">
         <v>7</v>
@@ -2634,10 +2634,10 @@
         <v>7</v>
       </c>
       <c r="K39" s="16">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L39" s="16">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2645,25 +2645,25 @@
         <v>48</v>
       </c>
       <c r="B40" s="16">
-        <v>24415</v>
+        <v>26482</v>
       </c>
       <c r="C40" s="16">
-        <v>23961</v>
+        <v>25986</v>
       </c>
       <c r="D40" s="17">
         <v>1.9E-2</v>
       </c>
       <c r="E40" s="16">
-        <v>19841</v>
+        <v>21449</v>
       </c>
       <c r="F40" s="16">
-        <v>19640</v>
+        <v>21236</v>
       </c>
       <c r="G40" s="16">
-        <v>4547</v>
+        <v>5007</v>
       </c>
       <c r="H40" s="16">
-        <v>4210</v>
+        <v>4630</v>
       </c>
       <c r="I40" s="16">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>27</v>
       </c>
       <c r="L40" s="16">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2683,25 +2683,25 @@
         <v>49</v>
       </c>
       <c r="B41" s="13">
-        <v>58434</v>
+        <v>63512</v>
       </c>
       <c r="C41" s="13">
-        <v>65907</v>
+        <v>70495</v>
       </c>
       <c r="D41" s="14">
-        <v>-0.11</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="E41" s="13">
-        <v>55719</v>
+        <v>60522</v>
       </c>
       <c r="F41" s="13">
-        <v>63026</v>
+        <v>67293</v>
       </c>
       <c r="G41" s="13">
-        <v>2546</v>
+        <v>2807</v>
       </c>
       <c r="H41" s="13">
-        <v>2692</v>
+        <v>2995</v>
       </c>
       <c r="I41" s="13">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         <v>0</v>
       </c>
       <c r="K41" s="13">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="L41" s="13">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2721,19 +2721,19 @@
         <v>50</v>
       </c>
       <c r="B42" s="16">
-        <v>14618</v>
+        <v>16008</v>
       </c>
       <c r="C42" s="16">
-        <v>18331</v>
+        <v>19725</v>
       </c>
       <c r="D42" s="17">
-        <v>-0.2</v>
+        <v>-0.19</v>
       </c>
       <c r="E42" s="16">
-        <v>14601</v>
+        <v>15990</v>
       </c>
       <c r="F42" s="16">
-        <v>18312</v>
+        <v>19703</v>
       </c>
       <c r="G42" s="16">
         <v>0</v>
@@ -2748,10 +2748,10 @@
         <v>0</v>
       </c>
       <c r="K42" s="16">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L42" s="16">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2759,19 +2759,19 @@
         <v>51</v>
       </c>
       <c r="B43" s="16">
-        <v>26984</v>
+        <v>29199</v>
       </c>
       <c r="C43" s="16">
-        <v>29860</v>
+        <v>31926</v>
       </c>
       <c r="D43" s="17">
-        <v>-9.6000000000000002E-2</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="E43" s="16">
-        <v>26984</v>
+        <v>29199</v>
       </c>
       <c r="F43" s="16">
-        <v>29860</v>
+        <v>31926</v>
       </c>
       <c r="G43" s="16">
         <v>0</v>
@@ -2797,25 +2797,25 @@
         <v>52</v>
       </c>
       <c r="B44" s="16">
-        <v>3820</v>
+        <v>4159</v>
       </c>
       <c r="C44" s="16">
-        <v>4320</v>
+        <v>4672</v>
       </c>
       <c r="D44" s="17">
-        <v>-0.12</v>
+        <v>-0.11</v>
       </c>
       <c r="E44" s="16">
-        <v>1274</v>
+        <v>1352</v>
       </c>
       <c r="F44" s="16">
-        <v>1627</v>
+        <v>1677</v>
       </c>
       <c r="G44" s="16">
-        <v>2546</v>
+        <v>2807</v>
       </c>
       <c r="H44" s="16">
-        <v>2692</v>
+        <v>2995</v>
       </c>
       <c r="I44" s="16">
         <v>0</v>
@@ -2835,19 +2835,19 @@
         <v>53</v>
       </c>
       <c r="B45" s="16">
-        <v>13013</v>
+        <v>14145</v>
       </c>
       <c r="C45" s="16">
-        <v>13395</v>
+        <v>14172</v>
       </c>
       <c r="D45" s="17">
-        <v>-2.9000000000000001E-2</v>
+        <v>-2E-3</v>
       </c>
       <c r="E45" s="16">
-        <v>12860</v>
+        <v>13981</v>
       </c>
       <c r="F45" s="16">
-        <v>13226</v>
+        <v>13988</v>
       </c>
       <c r="G45" s="16">
         <v>0</v>
@@ -2862,10 +2862,10 @@
         <v>0</v>
       </c>
       <c r="K45" s="16">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="L45" s="16">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2873,25 +2873,25 @@
         <v>54</v>
       </c>
       <c r="B46" s="13">
-        <v>99477</v>
+        <v>108272</v>
       </c>
       <c r="C46" s="13">
-        <v>110081</v>
+        <v>118335</v>
       </c>
       <c r="D46" s="14">
-        <v>-9.6000000000000002E-2</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="E46" s="13">
-        <v>48330</v>
+        <v>51905</v>
       </c>
       <c r="F46" s="13">
-        <v>54411</v>
+        <v>58397</v>
       </c>
       <c r="G46" s="13">
-        <v>50998</v>
+        <v>56209</v>
       </c>
       <c r="H46" s="13">
-        <v>55504</v>
+        <v>59758</v>
       </c>
       <c r="I46" s="13">
         <v>0</v>
@@ -2900,10 +2900,10 @@
         <v>0</v>
       </c>
       <c r="K46" s="13">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="L46" s="13">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2911,25 +2911,25 @@
         <v>55</v>
       </c>
       <c r="B47" s="16">
-        <v>11416</v>
+        <v>12311</v>
       </c>
       <c r="C47" s="16">
-        <v>11497</v>
+        <v>12180</v>
       </c>
       <c r="D47" s="17">
-        <v>-7.0000000000000001E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E47" s="16">
-        <v>9383</v>
+        <v>10045</v>
       </c>
       <c r="F47" s="16">
-        <v>9531</v>
+        <v>10054</v>
       </c>
       <c r="G47" s="16">
-        <v>2022</v>
+        <v>2256</v>
       </c>
       <c r="H47" s="16">
-        <v>1955</v>
+        <v>2114</v>
       </c>
       <c r="I47" s="16">
         <v>0</v>
@@ -2938,10 +2938,10 @@
         <v>0</v>
       </c>
       <c r="K47" s="16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L47" s="16">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2949,25 +2949,25 @@
         <v>56</v>
       </c>
       <c r="B48" s="16">
-        <v>7273</v>
+        <v>7665</v>
       </c>
       <c r="C48" s="16">
-        <v>9317</v>
+        <v>10081</v>
       </c>
       <c r="D48" s="17">
-        <v>-0.22</v>
+        <v>-0.24</v>
       </c>
       <c r="E48" s="16">
-        <v>4992</v>
+        <v>5242</v>
       </c>
       <c r="F48" s="16">
-        <v>5581</v>
+        <v>6135</v>
       </c>
       <c r="G48" s="16">
-        <v>2280</v>
+        <v>2423</v>
       </c>
       <c r="H48" s="16">
-        <v>3736</v>
+        <v>3945</v>
       </c>
       <c r="I48" s="16">
         <v>0</v>
@@ -2987,25 +2987,25 @@
         <v>57</v>
       </c>
       <c r="B49" s="16">
-        <v>10018</v>
+        <v>10932</v>
       </c>
       <c r="C49" s="16">
-        <v>14011</v>
+        <v>14964</v>
       </c>
       <c r="D49" s="17">
-        <v>-0.28000000000000003</v>
+        <v>-0.27</v>
       </c>
       <c r="E49" s="16">
-        <v>8873</v>
+        <v>9693</v>
       </c>
       <c r="F49" s="16">
-        <v>12876</v>
+        <v>13698</v>
       </c>
       <c r="G49" s="16">
-        <v>1006</v>
+        <v>1091</v>
       </c>
       <c r="H49" s="16">
-        <v>980</v>
+        <v>1098</v>
       </c>
       <c r="I49" s="16">
         <v>0</v>
@@ -3014,10 +3014,10 @@
         <v>0</v>
       </c>
       <c r="K49" s="16">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="L49" s="16">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -3025,25 +3025,25 @@
         <v>58</v>
       </c>
       <c r="B50" s="16">
-        <v>70771</v>
+        <v>77363</v>
       </c>
       <c r="C50" s="16">
-        <v>75256</v>
+        <v>81110</v>
       </c>
       <c r="D50" s="17">
-        <v>-0.06</v>
+        <v>-4.5999999999999999E-2</v>
       </c>
       <c r="E50" s="16">
-        <v>25081</v>
+        <v>26925</v>
       </c>
       <c r="F50" s="16">
-        <v>26423</v>
+        <v>28509</v>
       </c>
       <c r="G50" s="16">
-        <v>45689</v>
+        <v>50439</v>
       </c>
       <c r="H50" s="16">
-        <v>48833</v>
+        <v>52601</v>
       </c>
       <c r="I50" s="16">
         <v>0</v>
@@ -3063,25 +3063,25 @@
         <v>59</v>
       </c>
       <c r="B51" s="13">
-        <v>74405</v>
+        <v>81992</v>
       </c>
       <c r="C51" s="13">
-        <v>85989</v>
+        <v>93688</v>
       </c>
       <c r="D51" s="14">
-        <v>-0.13</v>
+        <v>-0.12</v>
       </c>
       <c r="E51" s="13">
-        <v>65481</v>
+        <v>72082</v>
       </c>
       <c r="F51" s="13">
-        <v>76088</v>
+        <v>82721</v>
       </c>
       <c r="G51" s="13">
-        <v>8552</v>
+        <v>9526</v>
       </c>
       <c r="H51" s="13">
-        <v>9496</v>
+        <v>10547</v>
       </c>
       <c r="I51" s="13">
         <v>0</v>
@@ -3090,10 +3090,10 @@
         <v>0</v>
       </c>
       <c r="K51" s="13">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="L51" s="13">
-        <v>405</v>
+        <v>420</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3101,19 +3101,19 @@
         <v>60</v>
       </c>
       <c r="B52" s="16">
-        <v>13829</v>
+        <v>15025</v>
       </c>
       <c r="C52" s="16">
-        <v>16914</v>
+        <v>18318</v>
       </c>
       <c r="D52" s="17">
         <v>-0.18</v>
       </c>
       <c r="E52" s="16">
-        <v>13829</v>
+        <v>15025</v>
       </c>
       <c r="F52" s="16">
-        <v>16914</v>
+        <v>18318</v>
       </c>
       <c r="G52" s="16">
         <v>0</v>
@@ -3139,25 +3139,25 @@
         <v>61</v>
       </c>
       <c r="B53" s="16">
-        <v>13563</v>
+        <v>14994</v>
       </c>
       <c r="C53" s="16">
-        <v>14678</v>
+        <v>15883</v>
       </c>
       <c r="D53" s="17">
-        <v>-7.5999999999999998E-2</v>
+        <v>-5.6000000000000001E-2</v>
       </c>
       <c r="E53" s="16">
-        <v>13547</v>
+        <v>14978</v>
       </c>
       <c r="F53" s="16">
-        <v>14661</v>
+        <v>15864</v>
       </c>
       <c r="G53" s="16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H53" s="16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I53" s="16">
         <v>0</v>
@@ -3169,7 +3169,7 @@
         <v>4</v>
       </c>
       <c r="L53" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -3177,13 +3177,13 @@
         <v>62</v>
       </c>
       <c r="B54" s="16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C54" s="16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D54" s="17">
-        <v>-0.17</v>
+        <v>-0.18</v>
       </c>
       <c r="E54" s="16">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="K54" s="16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L54" s="16">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -3215,25 +3215,25 @@
         <v>63</v>
       </c>
       <c r="B55" s="16">
-        <v>7666</v>
+        <v>8550</v>
       </c>
       <c r="C55" s="16">
-        <v>8470</v>
+        <v>9399</v>
       </c>
       <c r="D55" s="17">
-        <v>-9.5000000000000001E-2</v>
+        <v>-0.09</v>
       </c>
       <c r="E55" s="16">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="F55" s="16">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G55" s="16">
-        <v>7493</v>
+        <v>8360</v>
       </c>
       <c r="H55" s="16">
-        <v>8277</v>
+        <v>9199</v>
       </c>
       <c r="I55" s="16">
         <v>0</v>
@@ -3242,10 +3242,10 @@
         <v>0</v>
       </c>
       <c r="K55" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L55" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -3253,25 +3253,25 @@
         <v>64</v>
       </c>
       <c r="B56" s="16">
-        <v>1103</v>
+        <v>1144</v>
       </c>
       <c r="C56" s="16">
-        <v>1309</v>
+        <v>1404</v>
       </c>
       <c r="D56" s="17">
-        <v>-0.16</v>
+        <v>-0.19</v>
       </c>
       <c r="E56" s="16">
         <v>674</v>
       </c>
       <c r="F56" s="16">
-        <v>906</v>
+        <v>959</v>
       </c>
       <c r="G56" s="16">
-        <v>429</v>
+        <v>470</v>
       </c>
       <c r="H56" s="16">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="I56" s="16">
         <v>0</v>
@@ -3291,19 +3291,19 @@
         <v>65</v>
       </c>
       <c r="B57" s="16">
-        <v>8398</v>
+        <v>9441</v>
       </c>
       <c r="C57" s="16">
-        <v>9826</v>
+        <v>10844</v>
       </c>
       <c r="D57" s="17">
-        <v>-0.15</v>
+        <v>-0.13</v>
       </c>
       <c r="E57" s="16">
-        <v>8398</v>
+        <v>9441</v>
       </c>
       <c r="F57" s="16">
-        <v>9826</v>
+        <v>10844</v>
       </c>
       <c r="G57" s="16">
         <v>0</v>
@@ -3329,25 +3329,25 @@
         <v>66</v>
       </c>
       <c r="B58" s="16">
-        <v>9894</v>
+        <v>10932</v>
       </c>
       <c r="C58" s="16">
-        <v>12601</v>
+        <v>13532</v>
       </c>
       <c r="D58" s="17">
-        <v>-0.21</v>
+        <v>-0.19</v>
       </c>
       <c r="E58" s="16">
-        <v>9408</v>
+        <v>10416</v>
       </c>
       <c r="F58" s="16">
-        <v>12006</v>
+        <v>12897</v>
       </c>
       <c r="G58" s="16">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="H58" s="16">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="I58" s="16">
         <v>0</v>
@@ -3367,25 +3367,25 @@
         <v>67</v>
       </c>
       <c r="B59" s="16">
-        <v>19941</v>
+        <v>21893</v>
       </c>
       <c r="C59" s="16">
-        <v>22178</v>
+        <v>24293</v>
       </c>
       <c r="D59" s="17">
-        <v>-0.1</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="E59" s="16">
-        <v>19458</v>
+        <v>21365</v>
       </c>
       <c r="F59" s="16">
-        <v>21587</v>
+        <v>23644</v>
       </c>
       <c r="G59" s="16">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="H59" s="16">
-        <v>443</v>
+        <v>488</v>
       </c>
       <c r="I59" s="16">
         <v>0</v>
@@ -3394,10 +3394,10 @@
         <v>0</v>
       </c>
       <c r="K59" s="16">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="L59" s="16">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -3405,25 +3405,25 @@
         <v>68</v>
       </c>
       <c r="B60" s="13">
-        <v>3262</v>
+        <v>3580</v>
       </c>
       <c r="C60" s="13">
-        <v>3624</v>
+        <v>4163</v>
       </c>
       <c r="D60" s="14">
-        <v>-0.1</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="E60" s="13">
         <v>905</v>
       </c>
       <c r="F60" s="13">
-        <v>994</v>
+        <v>1175</v>
       </c>
       <c r="G60" s="13">
-        <v>2290</v>
+        <v>2602</v>
       </c>
       <c r="H60" s="13">
-        <v>2567</v>
+        <v>2919</v>
       </c>
       <c r="I60" s="13">
         <v>0</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="K60" s="13">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="L60" s="13">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3443,13 +3443,13 @@
         <v>69</v>
       </c>
       <c r="B61" s="16">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C61" s="16">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D61" s="17">
-        <v>8.8999999999999996E-2</v>
+        <v>0.09</v>
       </c>
       <c r="E61" s="16">
         <v>0</v>
@@ -3470,10 +3470,10 @@
         <v>0</v>
       </c>
       <c r="K61" s="16">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="L61" s="16">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3484,16 +3484,16 @@
         <v>905</v>
       </c>
       <c r="C62" s="16">
-        <v>994</v>
+        <v>1175</v>
       </c>
       <c r="D62" s="17">
-        <v>-0.09</v>
+        <v>-0.23</v>
       </c>
       <c r="E62" s="16">
         <v>905</v>
       </c>
       <c r="F62" s="16">
-        <v>994</v>
+        <v>1175</v>
       </c>
       <c r="G62" s="16">
         <v>0</v>
@@ -3519,10 +3519,10 @@
         <v>71</v>
       </c>
       <c r="B63" s="16">
-        <v>2297</v>
+        <v>2609</v>
       </c>
       <c r="C63" s="16">
-        <v>2574</v>
+        <v>2927</v>
       </c>
       <c r="D63" s="17">
         <v>-0.11</v>
@@ -3534,10 +3534,10 @@
         <v>0</v>
       </c>
       <c r="G63" s="16">
-        <v>2290</v>
+        <v>2602</v>
       </c>
       <c r="H63" s="16">
-        <v>2567</v>
+        <v>2919</v>
       </c>
       <c r="I63" s="16">
         <v>0</v>
@@ -3546,10 +3546,10 @@
         <v>0</v>
       </c>
       <c r="K63" s="16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L63" s="16">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -3557,37 +3557,37 @@
         <v>72</v>
       </c>
       <c r="B64" s="13">
-        <v>980</v>
+        <v>1074</v>
       </c>
       <c r="C64" s="13">
-        <v>969</v>
+        <v>1084</v>
       </c>
       <c r="D64" s="14">
-        <v>1.2E-2</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="E64" s="13">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="F64" s="13">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="G64" s="13">
-        <v>733</v>
+        <v>806</v>
       </c>
       <c r="H64" s="13">
-        <v>700</v>
+        <v>780</v>
       </c>
       <c r="I64" s="13">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J64" s="13">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K64" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L64" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3595,31 +3595,31 @@
         <v>73</v>
       </c>
       <c r="B65" s="16">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="C65" s="16">
-        <v>433</v>
+        <v>488</v>
       </c>
       <c r="D65" s="17">
-        <v>-0.15</v>
+        <v>-0.18</v>
       </c>
       <c r="E65" s="16">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="F65" s="16">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="G65" s="16">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="H65" s="16">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="I65" s="16">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J65" s="16">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K65" s="16">
         <v>0</v>
@@ -3633,13 +3633,13 @@
         <v>74</v>
       </c>
       <c r="B66" s="16">
-        <v>613</v>
+        <v>676</v>
       </c>
       <c r="C66" s="16">
-        <v>535</v>
+        <v>596</v>
       </c>
       <c r="D66" s="17">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="E66" s="16">
         <v>0</v>
@@ -3648,10 +3648,10 @@
         <v>0</v>
       </c>
       <c r="G66" s="16">
-        <v>602</v>
+        <v>665</v>
       </c>
       <c r="H66" s="16">
-        <v>521</v>
+        <v>582</v>
       </c>
       <c r="I66" s="16">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         <v>0</v>
       </c>
       <c r="K66" s="16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L66" s="16">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3671,37 +3671,37 @@
         <v>75</v>
       </c>
       <c r="B67" s="13">
-        <v>564967</v>
+        <v>613093</v>
       </c>
       <c r="C67" s="13">
-        <v>640427</v>
+        <v>689370</v>
       </c>
       <c r="D67" s="14">
-        <v>-0.12</v>
+        <v>-0.11</v>
       </c>
       <c r="E67" s="13">
-        <v>415691</v>
+        <v>450965</v>
       </c>
       <c r="F67" s="13">
-        <v>466201</v>
+        <v>501628</v>
       </c>
       <c r="G67" s="13">
-        <v>146240</v>
+        <v>158865</v>
       </c>
       <c r="H67" s="13">
-        <v>170677</v>
+        <v>183886</v>
       </c>
       <c r="I67" s="13">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="J67" s="13">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="K67" s="13">
-        <v>2915</v>
+        <v>3130</v>
       </c>
       <c r="L67" s="13">
-        <v>3412</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
